--- a/data/trans_orig/P14A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57709FD-8E3E-4922-9CB2-B10528E7BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D069B1A-695B-4A54-936E-49961D686C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08465761-5C4C-49BD-8C57-60316642B4F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{691746CC-4FAC-492F-B5D3-8986C82691EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="242">
   <si>
     <t>Población que recibe medicación o terapia por cáncer en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -93,510 +93,522 @@
     <t>62,72%</t>
   </si>
   <si>
-    <t>18,39%</t>
+    <t>18,32%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>73,85%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
     <t>61,9%</t>
   </si>
   <si>
@@ -612,19 +624,19 @@
     <t>63,46%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>19,5%</t>
@@ -636,19 +648,19 @@
     <t>36,54%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>56,52%</t>
@@ -702,55 +714,55 @@
     <t>67,56%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D90ED9-0991-4DBB-B305-A4C246D11F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D15A5D-C7D3-4BBE-9E48-B50225243734}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2675,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00522DF9-6A4F-405B-9D7B-69DE37701A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C8D2B-4D81-4ECD-8070-290ECC226CE1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2984,10 +2996,10 @@
         <v>7572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3005,7 +3017,7 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3035,13 +3047,13 @@
         <v>1017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,10 +3121,10 @@
         <v>4318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3124,13 +3136,13 @@
         <v>7071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3139,13 +3151,13 @@
         <v>11388</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3172,13 @@
         <v>963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3175,13 +3187,13 @@
         <v>5662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3190,13 +3202,13 @@
         <v>6626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,10 +3276,10 @@
         <v>3825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3279,10 +3291,10 @@
         <v>10177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3294,13 +3306,13 @@
         <v>14002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3327,13 @@
         <v>1801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3330,13 +3342,13 @@
         <v>1033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3345,13 +3357,13 @@
         <v>2834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3431,7 @@
         <v>1967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -3449,10 +3461,10 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3470,7 +3482,7 @@
         <v>891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -3500,13 +3512,13 @@
         <v>891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3616,7 @@
         <v>1287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
@@ -3655,7 +3667,7 @@
         <v>793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
@@ -3729,10 +3741,10 @@
         <v>3764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3744,13 +3756,13 @@
         <v>10139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3759,13 +3771,13 @@
         <v>13902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3792,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3795,13 +3807,13 @@
         <v>5839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3810,13 +3822,13 @@
         <v>6751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,10 +3896,10 @@
         <v>3121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3899,13 +3911,13 @@
         <v>11414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3914,13 +3926,13 @@
         <v>14535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3947,13 @@
         <v>2401</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3950,13 +3962,13 @@
         <v>6204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3965,13 +3977,13 @@
         <v>8605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4051,13 @@
         <v>20087</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -4054,13 +4066,13 @@
         <v>50346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -4069,13 +4081,13 @@
         <v>70434</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4102,13 @@
         <v>9647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -4105,13 +4117,13 @@
         <v>20804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -4120,13 +4132,13 @@
         <v>30450</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D069B1A-695B-4A54-936E-49961D686C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE15B71-1907-45BD-B020-4AE4456D4810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{691746CC-4FAC-492F-B5D3-8986C82691EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1419F2B-4AAD-4FD4-8A64-F065F922CBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="238">
   <si>
     <t>Población que recibe medicación o terapia por cáncer en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -93,16 +93,16 @@
     <t>62,72%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>74,57%</t>
@@ -111,16 +111,16 @@
     <t>37,28%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,10 +147,10 @@
     <t>59,05%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>32,75%</t>
@@ -171,10 +171,10 @@
     <t>40,95%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -183,49 +183,49 @@
     <t>29,98%</t>
   </si>
   <si>
-    <t>72,82%</t>
+    <t>73,69%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>39,95%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>27,18%</t>
+    <t>26,31%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -240,7 +240,7 @@
     <t>80,99%</t>
   </si>
   <si>
-    <t>30,54%</t>
+    <t>30,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -255,7 +255,7 @@
     <t>19,01%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>69,14%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -264,37 +264,31 @@
     <t>74,94%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
     <t>34,12%</t>
   </si>
   <si>
     <t>57,74%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
     <t>65,88%</t>
   </si>
   <si>
     <t>42,26%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -309,19 +303,19 @@
     <t>49,55%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>40,34%</t>
@@ -333,19 +327,19 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -354,103 +348,103 @@
     <t>87,51%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población que recibe medicación o terapia por cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -459,16 +453,16 @@
     <t>69,92%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>26,45%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -477,16 +471,16 @@
     <t>30,08%</t>
   </si>
   <si>
-    <t>73,67%</t>
+    <t>73,55%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>75,26%</t>
@@ -495,7 +489,7 @@
     <t>88,17%</t>
   </si>
   <si>
-    <t>38,65%</t>
+    <t>49,48%</t>
   </si>
   <si>
     <t>24,74%</t>
@@ -504,91 +498,91 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>61,35%</t>
+    <t>50,52%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>34,31%</t>
+    <t>30,67%</t>
   </si>
   <si>
     <t>55,53%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>65,69%</t>
+    <t>69,33%</t>
   </si>
   <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>17,81%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>58,45%</t>
+    <t>58,62%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>95,43%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>83,79%</t>
+    <t>82,19%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>41,55%</t>
+    <t>41,38%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>68,81%</t>
@@ -618,151 +612,145 @@
     <t>80,5%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
     <t>63,46%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>56,52%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>13,93%</t>
   </si>
   <si>
     <t>64,78%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>43,48%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>86,07%</t>
   </si>
   <si>
     <t>35,22%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D15A5D-C7D3-4BBE-9E48-B50225243734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BB5C04-76E8-4284-85E2-903FC29FE2E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,7 +2046,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2070,7 +2058,7 @@
         <v>1056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -2085,13 +2073,13 @@
         <v>4242</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2094,13 @@
         <v>1066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2121,7 +2109,7 @@
         <v>2040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -2136,13 +2124,13 @@
         <v>3105</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2186,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2210,10 +2198,10 @@
         <v>2962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -2225,13 +2213,13 @@
         <v>9505</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2240,13 +2228,13 @@
         <v>12466</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2249,13 @@
         <v>2003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2276,13 +2264,13 @@
         <v>9677</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2291,13 +2279,13 @@
         <v>11681</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2341,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2365,10 +2353,10 @@
         <v>6567</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2383,10 +2371,10 @@
         <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2395,13 +2383,13 @@
         <v>16332</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2404,13 @@
         <v>937</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2431,13 +2419,13 @@
         <v>3265</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2446,13 +2434,13 @@
         <v>4202</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2508,13 @@
         <v>25456</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -2535,13 +2523,13 @@
         <v>38139</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>57</v>
@@ -2550,13 +2538,13 @@
         <v>63594</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2559,13 @@
         <v>13709</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2586,13 +2574,13 @@
         <v>33478</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -2601,13 +2589,13 @@
         <v>47188</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2651,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C8D2B-4D81-4ECD-8070-290ECC226CE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F4174E-F846-4AB9-BC76-AAC56DA35D1F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2704,7 +2692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2817,7 +2805,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2826,10 +2814,10 @@
         <v>4799</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2841,13 +2829,13 @@
         <v>4799</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2877,13 +2865,13 @@
         <v>2065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2892,13 +2880,13 @@
         <v>2934</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2954,7 @@
         <v>3093</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -2996,10 +2984,10 @@
         <v>7572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3017,7 +3005,7 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3047,13 +3035,13 @@
         <v>1017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +3109,10 @@
         <v>4318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3136,13 +3124,13 @@
         <v>7071</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3151,13 +3139,13 @@
         <v>11388</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3160,13 @@
         <v>963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3187,13 +3175,13 @@
         <v>5662</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3202,13 +3190,13 @@
         <v>6626</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +3264,10 @@
         <v>3825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3291,10 +3279,10 @@
         <v>10177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3306,13 +3294,13 @@
         <v>14002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3315,13 @@
         <v>1801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3342,13 +3330,13 @@
         <v>1033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3357,13 +3345,13 @@
         <v>2834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3419,7 @@
         <v>1967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -3449,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>28</v>
@@ -3461,10 +3449,10 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3482,7 +3470,7 @@
         <v>891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -3503,7 +3491,7 @@
         <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3512,13 +3500,13 @@
         <v>891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3580,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3604,7 +3592,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>28</v>
@@ -3616,7 +3604,7 @@
         <v>1287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
@@ -3640,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -3658,7 +3646,7 @@
         <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3667,7 +3655,7 @@
         <v>793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
@@ -3729,7 +3717,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3741,10 +3729,10 @@
         <v>3764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3756,13 +3744,13 @@
         <v>10139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3771,13 +3759,13 @@
         <v>13902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3780,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3807,13 +3795,13 @@
         <v>5839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3822,13 +3810,13 @@
         <v>6751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3872,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3896,10 +3884,10 @@
         <v>3121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3911,13 +3899,13 @@
         <v>11414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3926,13 +3914,13 @@
         <v>14535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3935,13 @@
         <v>2401</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3962,13 +3950,13 @@
         <v>6204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3977,13 +3965,13 @@
         <v>8605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4039,13 @@
         <v>20087</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -4066,13 +4054,13 @@
         <v>50346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -4081,13 +4069,13 @@
         <v>70434</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4090,13 @@
         <v>9647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -4117,28 +4105,28 @@
         <v>20804</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="7">
+        <v>28</v>
+      </c>
+      <c r="N29" s="7">
+        <v>30451</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M29" s="7">
-        <v>28</v>
-      </c>
-      <c r="N29" s="7">
-        <v>30450</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4168,7 @@
         <v>94</v>
       </c>
       <c r="N30" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -4194,7 +4182,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
